--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -31,19 +31,64 @@
     <t xml:space="preserve">Auror</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldier</t>
+    <t xml:space="preserve">Enforcer</t>
   </si>
   <si>
     <t xml:space="preserve">Warder</t>
   </si>
   <si>
-    <t xml:space="preserve">Stuff0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff2</t>
+    <t xml:space="preserve">Combat Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellcasting Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shocking Arrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defence Against the Dark Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrain Advantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Quarters casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethereal Manacles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elegant Avoidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage Slayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Cleave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Reflexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible Resilience (see: hard to kill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elegant Avoidance II</t>
   </si>
 </sst>
 </file>
@@ -147,14 +192,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="41.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,12 +231,6 @@
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -200,6 +240,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A3/5)</f>
         <v>0</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -209,6 +255,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A4/5)</f>
         <v>0</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -218,6 +267,15 @@
         <f aca="false">_xlfn.FLOOR.MATH(A5/5)</f>
         <v>0</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -236,6 +294,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A7/5)</f>
         <v>1</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -245,6 +309,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A8/5)</f>
         <v>1</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -254,6 +324,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A9/5)</f>
         <v>1</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -263,6 +336,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A10/5)</f>
         <v>1</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -272,6 +348,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A11/5)</f>
         <v>2</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -281,6 +360,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A12/5)</f>
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -290,6 +372,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A13/5)</f>
         <v>2</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -299,6 +387,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A14/5)</f>
         <v>2</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -317,6 +408,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A16/5)</f>
         <v>3</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -335,6 +432,9 @@
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(A18/5)</f>
         <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -43,16 +43,13 @@
     <t xml:space="preserve">Spellcasting Improvement</t>
   </si>
   <si>
+    <t xml:space="preserve">Sudden Ambush</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multiward</t>
   </si>
   <si>
-    <t xml:space="preserve">Shocking Arrival</t>
-  </si>
-  <si>
     <t xml:space="preserve">Defence Against the Dark Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambush</t>
   </si>
   <si>
     <t xml:space="preserve">Terrain Advantage</t>
@@ -174,12 +171,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -192,14 +189,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="41.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -243,9 +241,6 @@
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -256,6 +251,9 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -270,11 +268,8 @@
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,10 +290,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,7 +308,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,7 +320,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,7 +332,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,7 +344,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,7 +356,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,7 +371,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,10 +404,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -61,12 +61,18 @@
     <t xml:space="preserve">Close Quarters casting</t>
   </si>
   <si>
+    <t xml:space="preserve">Trap Expertise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ethereal Manacles</t>
   </si>
   <si>
     <t xml:space="preserve">Elegant Avoidance</t>
   </si>
   <si>
+    <t xml:space="preserve">Wardbreaker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fast casting</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mage Slayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collateral Reduction</t>
   </si>
   <si>
     <t xml:space="preserve">Magic Cleave</t>
@@ -189,7 +198,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -295,6 +304,9 @@
       <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -308,7 +320,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,7 +332,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,7 +347,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,7 +371,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,7 +389,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Magic Cleave</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat Reflexes</t>
+    <t xml:space="preserve">Merciless Strike (use 1 bigger dice on damage checks)</t>
   </si>
   <si>
     <t xml:space="preserve">Incredible Resilience (see: hard to kill)</t>
@@ -197,8 +197,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -198,7 +198,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:C52"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Defence Against the Dark Arts</t>
   </si>
   <si>
-    <t xml:space="preserve">Terrain Advantage</t>
+    <t xml:space="preserve">Runes</t>
   </si>
   <si>
     <t xml:space="preserve">Investigate Target</t>
@@ -76,13 +76,22 @@
     <t xml:space="preserve">Fast casting</t>
   </si>
   <si>
-    <t xml:space="preserve">Runes</t>
+    <t xml:space="preserve">Regenerative Shields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runes II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run ‘n Gun</t>
   </si>
   <si>
     <t xml:space="preserve">Mage Slayer</t>
   </si>
   <si>
-    <t xml:space="preserve">Collateral Reduction</t>
+    <t xml:space="preserve">Collateral Awareness</t>
   </si>
   <si>
     <t xml:space="preserve">Magic Cleave</t>
@@ -95,6 +104,15 @@
   </si>
   <si>
     <t xml:space="preserve">Elegant Avoidance II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runes III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing to see here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runes IV</t>
   </si>
 </sst>
 </file>
@@ -180,12 +198,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -197,15 +215,15 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -277,9 +295,6 @@
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -289,6 +304,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A6/5)</f>
         <v>1</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -349,6 +367,9 @@
       <c r="D10" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -358,8 +379,11 @@
         <f aca="false">_xlfn.FLOOR.MATH(A11/5)</f>
         <v>2</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,11 +394,14 @@
         <f aca="false">_xlfn.FLOOR.MATH(A12/5)</f>
         <v>2</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +416,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,10 +449,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,6 +467,9 @@
         <v>3</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="E17" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -475,6 +508,9 @@
       <c r="B21" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(A21/5)</f>
         <v>4</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Spellcasting Improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Sudden Ambush</t>
+    <t xml:space="preserve">Intimidating Style</t>
   </si>
   <si>
     <t xml:space="preserve">Multiward</t>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">Runes</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigate Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close Quarters casting</t>
+    <t xml:space="preserve">Seasoned Investigator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage Slayer I</t>
   </si>
   <si>
     <t xml:space="preserve">Trap Expertise</t>
@@ -67,49 +67,49 @@
     <t xml:space="preserve">Ethereal Manacles</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat Training II</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elegant Avoidance</t>
   </si>
   <si>
     <t xml:space="preserve">Wardbreaker</t>
   </si>
   <si>
+    <t xml:space="preserve">Run \apos{}n Gun</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fast casting</t>
   </si>
   <si>
+    <t xml:space="preserve">Runes II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collateral Awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage Slayer II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible Resilience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elegant Avoidance II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runes III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing to see here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimidating Style II</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regenerative Shields</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runes II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run ‘n Gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage Slayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collateral Awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Cleave</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merciless Strike (use 1 bigger dice on damage checks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incredible Resilience (see: hard to kill)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elegant Avoidance II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runes III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nothing to see here</t>
   </si>
   <si>
     <t xml:space="preserve">Runes IV</t>
@@ -198,12 +198,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -216,14 +216,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -349,11 +349,8 @@
         <f aca="false">_xlfn.FLOOR.MATH(A9/5)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,10 +362,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,10 +377,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,14 +388,11 @@
         <f aca="false">_xlfn.FLOOR.MATH(A12/5)</f>
         <v>2</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,8 +406,8 @@
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>24</v>
+      <c r="E13" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,8 +418,8 @@
         <f aca="false">_xlfn.FLOOR.MATH(A14/5)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>25</v>
+      <c r="D14" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +459,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,6 +482,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A19/5)</f>
         <v>3</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -508,6 +505,9 @@
       <c r="B21" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(A21/5)</f>
         <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>30</v>

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -61,15 +61,15 @@
     <t xml:space="preserve">Mage Slayer I</t>
   </si>
   <si>
+    <t xml:space="preserve">Ethereal Manacles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Training II</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trap Expertise</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethereal Manacles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat Training II</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elegant Avoidance</t>
   </si>
   <si>
@@ -85,31 +85,28 @@
     <t xml:space="preserve">Runes II</t>
   </si>
   <si>
-    <t xml:space="preserve">Collateral Awareness</t>
+    <t xml:space="preserve">Collateral Limitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimidating Style II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible Resilience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elegant Avoidance II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runes III</t>
   </si>
   <si>
     <t xml:space="preserve">Mage Slayer II</t>
   </si>
   <si>
-    <t xml:space="preserve">Incredible Resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elegant Avoidance II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runes III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nothing to see here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intimidating Style II</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regenerative Shields</t>
   </si>
   <si>
-    <t xml:space="preserve">Merciless Strike (use 1 bigger dice on damage checks)</t>
+    <t xml:space="preserve">Merciless Strike</t>
   </si>
   <si>
     <t xml:space="preserve">Runes IV</t>
@@ -216,7 +213,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,9 +319,6 @@
       <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -338,7 +332,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,6 +344,9 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -458,9 +455,6 @@
         <v>3</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="0" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -473,6 +467,9 @@
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -482,11 +479,8 @@
         <f aca="false">_xlfn.FLOOR.MATH(A19/5)</f>
         <v>3</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Auror.xlsx
+++ b/CoreRulebook/Data/Archetypes/Auror.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -61,15 +61,15 @@
     <t xml:space="preserve">FP:</t>
   </si>
   <si>
+    <t xml:space="preserve">Novice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armour:</t>
   </si>
   <si>
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">Novice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tools:</t>
   </si>
   <si>
@@ -79,16 +79,19 @@
     <t xml:space="preserve">Weapons:</t>
   </si>
   <si>
+    <t xml:space="preserve">Adept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Proficiencies:</t>
   </si>
   <si>
     <t xml:space="preserve">Equipment:</t>
   </si>
   <si>
-    <t xml:space="preserve">Adept</t>
-  </si>
-  <si>
     <t xml:space="preserve">Memorised Spells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert</t>
   </si>
   <si>
     <t xml:space="preserve">List1 Name</t>
@@ -231,7 +234,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,13 +338,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,7 +356,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -368,7 +371,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
@@ -383,7 +386,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -398,10 +401,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,10 +416,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -443,10 +446,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
